--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2023/26_Diyarbakır_2023.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2023/26_Diyarbakır_2023.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk 2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D760B2C8-02C6-4D99-B2B8-D40AE72CADAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8A4F0223-594E-4CAC-8060-905291C20684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="669" xr2:uid="{17114B36-B5CD-4227-8625-242A42D1D3C3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="669" xr2:uid="{CFF15C8A-F2C0-4950-82A1-D5885802FEEB}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="124" r:id="rId1"/>
@@ -911,13 +911,13 @@
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{EA816B1D-E3F5-40FF-A670-FED7D9DF8CDD}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{8BCA311E-9024-4480-93CC-663F77C7475B}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{164E01A7-6C85-43EF-86FA-E351905565A6}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{ACBAF697-5C5E-421A-8069-3BF183161E90}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{A8BF09C3-FB30-4883-97F9-76AFB2AF834B}"/>
-    <cellStyle name="Not 2" xfId="6" xr:uid="{3C810FCF-9EF3-4F84-9450-FAA0407E1307}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{3A7B2D3A-3E6B-43B9-9873-39406BBFB09D}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{C1D8D9C8-D456-4661-A869-8883B81DFA5C}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{5EB69EEC-E4F9-48F5-8D97-93E423CA9B7B}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{5A04F945-72A5-4A00-991A-9E2A17CA6D75}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{CA7A8DF6-63F0-4D06-8485-874C183A9FBA}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{BBABA0DF-7A4E-41C2-9E66-0DA6890C4CE8}"/>
+    <cellStyle name="Not 2" xfId="6" xr:uid="{4EB2DDBD-6B3E-490F-A87D-460D445FA169}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{E2E52667-50CA-4C46-AE5B-EB4FC8F60339}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1287,7 +1287,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6674745-A309-4688-9CC6-463F3EC579CE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63F0A623-F66D-4478-81DD-4540DC9986F5}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2573,7 +2573,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C9C4037-D47F-4912-B0A7-FC9C4118D98A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{309BEB30-6007-4F42-8A8E-865CC16CD788}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A37" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3816,7 +3816,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A227726B-4962-43EE-A019-451DCA352F4B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B554AE8F-A7D2-48F4-A6C9-E8A83E124528}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5047,7 +5047,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A4CD647-1D18-4167-A1C6-219141EF3D72}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69BFF74F-5A4A-42E9-94E1-0F37A0D6F5D2}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -6274,7 +6274,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8793EADC-F817-4FF5-BEF9-ED3306E0CA10}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B59B6832-7A39-4C5F-B63F-0708D9619AC5}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7559,7 +7559,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61FBBED9-829F-4D01-B1AF-017BAD3B6C8F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA1320D7-2936-4311-92B0-37FC7C36F465}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8844,7 +8844,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B628CCAC-EB2E-4629-945A-304E325E90D9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC35A81C-1499-4B1C-9670-92D70AFB4471}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10129,7 +10129,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{901C90B8-C179-42D6-8D15-5B964B4AC00F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCE3152F-8128-420D-9B7A-7C7056FE1450}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11414,7 +11414,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A38F4865-85CC-48F6-8910-FAD95E20BD1C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16D0C191-ECF5-438C-8C97-76AEEDB794CC}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12699,7 +12699,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87823B0A-9D03-4EBE-ADF5-04323642175D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EC3B5F1-A606-4DD0-B817-37BAFE3A6867}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -13970,7 +13970,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E6D1B6C-F27C-4DDB-8831-81D3C4DC1AE5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CACA335-FC9B-4184-B6D9-31D860867520}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -15241,7 +15241,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE50209D-7320-4FF7-BA0E-F95EC8505B6E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66625B59-BA41-41E5-A672-666C45ED1E18}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
